--- a/d190104_sshCan/outRelease/config/sshFile.xlsx
+++ b/d190104_sshCan/outRelease/config/sshFile.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\QTLearn\d190104_ssh-\outRelease\config\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\userSoft\QTcan3.3.0\config\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C8DEEFE9-B60E-4819-8DA4-15CF94AD8C22}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A423503F-F4F3-419E-B2F3-94CAAD28F5F0}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="5364" yWindow="1032" windowWidth="17280" windowHeight="8964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="唯一有用的数据" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="30">
   <si>
     <t>columnCount</t>
   </si>
@@ -78,16 +78,9 @@
     <t>/dymind/app/DM_1114/config/motor.xml</t>
   </si>
   <si>
-    <t>./motor.xml</t>
-  </si>
-  <si>
     <t>/dymind/app/DM_1114/config/</t>
   </si>
   <si>
-    <t>./config2/</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>源地址-&gt;下载文件</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -97,6 +90,62 @@
   </si>
   <si>
     <t>1114</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>备注</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/sddisk/log/hostapp.log</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>./ssh_file/1107/motor.xml</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>./ssh_file/1107/hostapp.log</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/dymind/app/DM_1107/config/motor.xml</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/dymind/app/DM_1107/log/hostap.log</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1107</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/dymind/app/DM_1107/config/</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/dymind/app/DM_1107/log/</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>./ssh_file/1107/config_ssh/</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>./ssh_file/1107/log/</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>./ssh_file/1114/config_ssh/</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>./ssh_file/1114/motor.xml</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>./ssh_file/1114/hostapp.log</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -190,7 +239,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -225,13 +274,22 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -571,10 +629,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G18"/>
+  <dimension ref="A1:H38"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
+    <sheetView tabSelected="1" topLeftCell="A11" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
@@ -582,11 +640,11 @@
     <col min="1" max="1" width="17.77734375" style="2" customWidth="1"/>
     <col min="2" max="2" width="28.5546875" customWidth="1"/>
     <col min="3" max="3" width="40.77734375" customWidth="1"/>
-    <col min="4" max="4" width="40.77734375" style="8" customWidth="1"/>
-    <col min="5" max="7" width="3.77734375" customWidth="1"/>
+    <col min="4" max="5" width="40.77734375" style="8" customWidth="1"/>
+    <col min="6" max="8" width="3.77734375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -595,11 +653,12 @@
       </c>
       <c r="C1" s="1"/>
       <c r="D1" s="7"/>
-      <c r="E1" s="1"/>
+      <c r="E1" s="11"/>
       <c r="F1" s="1"/>
       <c r="G1" s="1"/>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H1" s="1"/>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
@@ -613,7 +672,7 @@
         <v>300</v>
       </c>
       <c r="E2" s="1">
-        <v>20</v>
+        <v>300</v>
       </c>
       <c r="F2" s="1">
         <v>20</v>
@@ -621,8 +680,11 @@
       <c r="G2" s="1">
         <v>20</v>
       </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H2" s="1">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>2</v>
       </c>
@@ -630,114 +692,119 @@
         <v>6</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D3" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E3" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="E3" s="1" t="s">
+      <c r="F3" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="F3" s="1" t="s">
+      <c r="G3" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="G3" s="1" t="s">
+      <c r="H3" s="1" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>0</v>
       </c>
       <c r="B4" t="s">
         <v>5</v>
       </c>
-      <c r="E4" s="10"/>
       <c r="F4" s="10"/>
       <c r="G4" s="10"/>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H4" s="10"/>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>0</v>
       </c>
       <c r="B5" t="s">
         <v>5</v>
       </c>
-      <c r="E5" s="3"/>
       <c r="F5" s="3"/>
       <c r="G5" s="3"/>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H5" s="3"/>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>0</v>
       </c>
       <c r="B6" t="s">
         <v>5</v>
       </c>
-      <c r="E6" s="3"/>
       <c r="F6" s="3"/>
       <c r="G6" s="3"/>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H6" s="3"/>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>0</v>
       </c>
       <c r="B7" t="s">
         <v>5</v>
       </c>
-      <c r="E7" s="3"/>
       <c r="F7" s="3"/>
       <c r="G7" s="3"/>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H7" s="3"/>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>0</v>
       </c>
       <c r="B8" t="s">
         <v>5</v>
       </c>
-      <c r="E8" s="3"/>
       <c r="F8" s="3"/>
       <c r="G8" s="3"/>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H8" s="3"/>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>0</v>
       </c>
       <c r="B9" t="s">
         <v>5</v>
       </c>
-      <c r="E9" s="3"/>
       <c r="F9" s="3"/>
       <c r="G9" s="3"/>
-    </row>
-    <row r="10" spans="1:7" ht="139.80000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H9" s="3"/>
+    </row>
+    <row r="10" spans="1:8" ht="139.80000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="3">
         <v>0</v>
       </c>
-      <c r="B10" s="11" t="s">
+      <c r="B10" s="15" t="s">
         <v>7</v>
       </c>
-      <c r="C10" s="12"/>
-      <c r="D10" s="12"/>
-      <c r="E10" s="12"/>
-      <c r="F10" s="12"/>
-      <c r="G10" s="12"/>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="C10" s="16"/>
+      <c r="D10" s="16"/>
+      <c r="E10" s="16"/>
+      <c r="F10" s="16"/>
+      <c r="G10" s="16"/>
+      <c r="H10" s="16"/>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" s="5">
         <v>1</v>
       </c>
       <c r="B11" s="6"/>
-      <c r="C11" s="13" t="s">
-        <v>17</v>
+      <c r="C11" s="12" t="s">
+        <v>15</v>
       </c>
       <c r="D11" s="9"/>
-      <c r="E11" s="3"/>
+      <c r="E11" s="9"/>
       <c r="F11" s="3"/>
       <c r="G11" s="3"/>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H11" s="3"/>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
         <v>2</v>
       </c>
@@ -747,88 +814,367 @@
       <c r="C12" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="D12" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="E12" s="3"/>
+      <c r="D12" s="11" t="s">
+        <v>28</v>
+      </c>
+      <c r="E12" s="11"/>
       <c r="F12" s="3"/>
       <c r="G12" s="3"/>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H12" s="3"/>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
         <v>2</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C13" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="D13" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="E13" s="3"/>
+        <v>17</v>
+      </c>
+      <c r="D13" s="13" t="s">
+        <v>29</v>
+      </c>
+      <c r="E13" s="11"/>
       <c r="F13" s="3"/>
       <c r="G13" s="3"/>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H13" s="3"/>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
         <v>2</v>
       </c>
       <c r="B14" s="3"/>
       <c r="C14" s="4"/>
-      <c r="D14" s="7"/>
-      <c r="E14" s="3"/>
+      <c r="D14" s="11"/>
+      <c r="E14" s="11"/>
       <c r="F14" s="3"/>
       <c r="G14" s="3"/>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H14" s="3"/>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15" s="1">
         <v>2</v>
       </c>
       <c r="B15" s="3"/>
       <c r="C15" s="4"/>
-      <c r="D15" s="7"/>
-      <c r="E15" s="3"/>
+      <c r="D15" s="11"/>
+      <c r="E15" s="11"/>
       <c r="F15" s="3"/>
       <c r="G15" s="3"/>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H15" s="3"/>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16" s="1">
         <v>2</v>
       </c>
       <c r="B16" s="3"/>
       <c r="C16" s="4"/>
-      <c r="D16" s="7"/>
-      <c r="E16" s="3"/>
+      <c r="D16" s="11"/>
+      <c r="E16" s="11"/>
       <c r="F16" s="3"/>
       <c r="G16" s="3"/>
-    </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H16" s="3"/>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A17" s="1">
         <v>2</v>
       </c>
       <c r="B17" s="3"/>
       <c r="C17" s="4"/>
-      <c r="D17" s="7"/>
-      <c r="E17" s="3"/>
+      <c r="D17" s="11"/>
+      <c r="E17" s="11"/>
       <c r="F17" s="3"/>
       <c r="G17" s="3"/>
-    </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H17" s="3"/>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A18" s="1">
         <v>2</v>
       </c>
       <c r="B18" s="3"/>
       <c r="C18" s="4"/>
-      <c r="D18" s="7"/>
-      <c r="E18" s="3"/>
+      <c r="D18" s="11"/>
+      <c r="E18" s="11"/>
       <c r="F18" s="3"/>
       <c r="G18" s="3"/>
+      <c r="H18" s="3"/>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A19" s="1">
+        <v>2</v>
+      </c>
+      <c r="B19" s="3"/>
+      <c r="C19" s="4"/>
+      <c r="D19" s="11"/>
+      <c r="E19" s="11"/>
+      <c r="F19" s="3"/>
+      <c r="G19" s="3"/>
+      <c r="H19" s="3"/>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A20" s="1">
+        <v>2</v>
+      </c>
+      <c r="B20" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C20" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="D20" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="E20" s="11"/>
+      <c r="F20" s="3"/>
+      <c r="G20" s="3"/>
+      <c r="H20" s="3"/>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A21" s="5">
+        <v>1</v>
+      </c>
+      <c r="B21" s="6"/>
+      <c r="C21" s="12" t="s">
+        <v>22</v>
+      </c>
+      <c r="D21" s="9"/>
+      <c r="E21" s="9"/>
+      <c r="F21" s="3"/>
+      <c r="G21" s="3"/>
+      <c r="H21" s="3"/>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A22" s="1">
+        <v>2</v>
+      </c>
+      <c r="B22" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C22" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="D22" s="14" t="s">
+        <v>18</v>
+      </c>
+      <c r="E22" s="11"/>
+      <c r="F22" s="3"/>
+      <c r="G22" s="3"/>
+      <c r="H22" s="3"/>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A23" s="1">
+        <v>2</v>
+      </c>
+      <c r="B23" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C23" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="D23" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="E23" s="11"/>
+      <c r="F23" s="3"/>
+      <c r="G23" s="3"/>
+      <c r="H23" s="3"/>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A24" s="1">
+        <v>2</v>
+      </c>
+      <c r="B24" s="3"/>
+      <c r="C24" s="4"/>
+      <c r="D24" s="14"/>
+      <c r="E24" s="14"/>
+      <c r="F24" s="3"/>
+      <c r="G24" s="3"/>
+      <c r="H24" s="3"/>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A25" s="1">
+        <v>2</v>
+      </c>
+      <c r="B25" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C25" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="D25" s="14" t="s">
+        <v>26</v>
+      </c>
+      <c r="E25" s="14"/>
+      <c r="F25" s="3"/>
+      <c r="G25" s="3"/>
+      <c r="H25" s="3"/>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A26" s="1">
+        <v>2</v>
+      </c>
+      <c r="B26" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C26" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="D26" s="14" t="s">
+        <v>25</v>
+      </c>
+      <c r="E26" s="14"/>
+      <c r="F26" s="3"/>
+      <c r="G26" s="3"/>
+      <c r="H26" s="3"/>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A27" s="1">
+        <v>2</v>
+      </c>
+      <c r="B27" s="3"/>
+      <c r="C27" s="4"/>
+      <c r="D27" s="14"/>
+      <c r="E27" s="14"/>
+      <c r="F27" s="3"/>
+      <c r="G27" s="3"/>
+      <c r="H27" s="3"/>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A28" s="1">
+        <v>2</v>
+      </c>
+      <c r="B28" s="3"/>
+      <c r="C28" s="4"/>
+      <c r="D28" s="14"/>
+      <c r="E28" s="14"/>
+      <c r="F28" s="3"/>
+      <c r="G28" s="3"/>
+      <c r="H28" s="3"/>
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A29" s="1">
+        <v>2</v>
+      </c>
+      <c r="B29" s="3"/>
+      <c r="C29" s="4"/>
+      <c r="D29" s="14"/>
+      <c r="E29" s="14"/>
+      <c r="F29" s="3"/>
+      <c r="G29" s="3"/>
+      <c r="H29" s="3"/>
+    </row>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A30" s="1">
+        <v>2</v>
+      </c>
+      <c r="B30" s="3"/>
+      <c r="C30" s="4"/>
+      <c r="D30" s="14"/>
+      <c r="E30" s="14"/>
+      <c r="F30" s="3"/>
+      <c r="G30" s="3"/>
+      <c r="H30" s="3"/>
+    </row>
+    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A31" s="1">
+        <v>2</v>
+      </c>
+      <c r="B31" s="3"/>
+      <c r="C31" s="4"/>
+      <c r="D31" s="14"/>
+      <c r="E31" s="14"/>
+      <c r="F31" s="3"/>
+      <c r="G31" s="3"/>
+      <c r="H31" s="3"/>
+    </row>
+    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A32" s="1">
+        <v>2</v>
+      </c>
+      <c r="B32" s="3"/>
+      <c r="C32" s="4"/>
+      <c r="D32" s="14"/>
+      <c r="E32" s="14"/>
+      <c r="F32" s="3"/>
+      <c r="G32" s="3"/>
+      <c r="H32" s="3"/>
+    </row>
+    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A33" s="1">
+        <v>2</v>
+      </c>
+      <c r="B33" s="3"/>
+      <c r="C33" s="4"/>
+      <c r="D33" s="14"/>
+      <c r="E33" s="14"/>
+      <c r="F33" s="3"/>
+      <c r="G33" s="3"/>
+      <c r="H33" s="3"/>
+    </row>
+    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A34" s="1">
+        <v>2</v>
+      </c>
+      <c r="B34" s="3"/>
+      <c r="C34" s="4"/>
+      <c r="D34" s="14"/>
+      <c r="E34" s="14"/>
+      <c r="F34" s="3"/>
+      <c r="G34" s="3"/>
+      <c r="H34" s="3"/>
+    </row>
+    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A35" s="1">
+        <v>2</v>
+      </c>
+      <c r="B35" s="3"/>
+      <c r="C35" s="4"/>
+      <c r="D35" s="14"/>
+      <c r="E35" s="14"/>
+      <c r="F35" s="3"/>
+      <c r="G35" s="3"/>
+      <c r="H35" s="3"/>
+    </row>
+    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A36" s="1">
+        <v>2</v>
+      </c>
+      <c r="B36" s="3"/>
+      <c r="C36" s="4"/>
+      <c r="D36" s="14"/>
+      <c r="E36" s="14"/>
+      <c r="F36" s="3"/>
+      <c r="G36" s="3"/>
+      <c r="H36" s="3"/>
+    </row>
+    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A37" s="1">
+        <v>2</v>
+      </c>
+      <c r="B37" s="3"/>
+      <c r="C37" s="4"/>
+      <c r="D37" s="14"/>
+      <c r="E37" s="14"/>
+      <c r="F37" s="3"/>
+      <c r="G37" s="3"/>
+      <c r="H37" s="3"/>
+    </row>
+    <row r="38" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A38" s="1">
+        <v>2</v>
+      </c>
+      <c r="B38" s="3"/>
+      <c r="C38" s="4"/>
+      <c r="D38" s="7"/>
+      <c r="E38" s="11"/>
+      <c r="F38" s="3"/>
+      <c r="G38" s="3"/>
+      <c r="H38" s="3"/>
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="B10:G10"/>
+    <mergeCell ref="B10:H10"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/d190104_sshCan/outRelease/config/sshFile.xlsx
+++ b/d190104_sshCan/outRelease/config/sshFile.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="21425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="21901"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\userSoft\QTcan3.3.0\config\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\QTobj\d190104_sshCan\outRelease\config\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A423503F-F4F3-419E-B2F3-94CAAD28F5F0}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FE6734A3-4562-4FCA-8367-0BE3B7C576C1}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5364" yWindow="1032" windowWidth="17280" windowHeight="8964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="384" yWindow="384" windowWidth="20316" windowHeight="10512" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="唯一有用的数据" sheetId="1" r:id="rId1"/>
@@ -75,77 +75,78 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>/dymind/app/DM_1114/config/</t>
+  </si>
+  <si>
+    <t>源地址-&gt;下载文件</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>本机地址-上传文件</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1114</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>备注</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/sddisk/log/hostapp.log</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>./ssh_file/1107/motor.xml</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>./ssh_file/1107/hostapp.log</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/dymind/app/DM_1107/config/motor.xml</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/dymind/app/DM_1107/log/hostap.log</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1107</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/dymind/app/DM_1107/config/</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/dymind/app/DM_1107/log/</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>./ssh_file/1107/config_ssh/</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>./ssh_file/1107/log/</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>./ssh_file/1114/config_ssh/</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>./ssh_file/1114/motor.xml</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>./ssh_file/1114/hostapp.log</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>/dymind/app/DM_1114/config/motor.xml</t>
-  </si>
-  <si>
-    <t>/dymind/app/DM_1114/config/</t>
-  </si>
-  <si>
-    <t>源地址-&gt;下载文件</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>本机地址-上传文件</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1114</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>备注</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>/sddisk/log/hostapp.log</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>./ssh_file/1107/motor.xml</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>./ssh_file/1107/hostapp.log</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>/dymind/app/DM_1107/config/motor.xml</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>/dymind/app/DM_1107/log/hostap.log</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1107</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>/dymind/app/DM_1107/config/</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>/dymind/app/DM_1107/log/</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>./ssh_file/1107/config_ssh/</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>./ssh_file/1107/log/</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>./ssh_file/1114/config_ssh/</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>./ssh_file/1114/motor.xml</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>./ssh_file/1114/hostapp.log</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -632,7 +633,7 @@
   <dimension ref="A1:H38"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A11" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D15" sqref="D15"/>
+      <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
@@ -692,13 +693,13 @@
         <v>6</v>
       </c>
       <c r="C3" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D3" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="D3" s="1" t="s">
-        <v>14</v>
-      </c>
       <c r="E3" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="F3" s="1" t="s">
         <v>3</v>
@@ -796,7 +797,7 @@
       </c>
       <c r="B11" s="6"/>
       <c r="C11" s="12" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D11" s="9"/>
       <c r="E11" s="9"/>
@@ -812,10 +813,10 @@
         <v>9</v>
       </c>
       <c r="C12" s="4" t="s">
-        <v>11</v>
+        <v>29</v>
       </c>
       <c r="D12" s="11" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E12" s="11"/>
       <c r="F12" s="3"/>
@@ -830,10 +831,10 @@
         <v>9</v>
       </c>
       <c r="C13" s="4" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D13" s="13" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E13" s="11"/>
       <c r="F13" s="3"/>
@@ -920,10 +921,10 @@
         <v>10</v>
       </c>
       <c r="C20" s="4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D20" s="7" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E20" s="11"/>
       <c r="F20" s="3"/>
@@ -936,7 +937,7 @@
       </c>
       <c r="B21" s="6"/>
       <c r="C21" s="12" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D21" s="9"/>
       <c r="E21" s="9"/>
@@ -952,10 +953,10 @@
         <v>9</v>
       </c>
       <c r="C22" s="4" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D22" s="14" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E22" s="11"/>
       <c r="F22" s="3"/>
@@ -970,10 +971,10 @@
         <v>9</v>
       </c>
       <c r="C23" s="4" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D23" s="14" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E23" s="11"/>
       <c r="F23" s="3"/>
@@ -1000,10 +1001,10 @@
         <v>10</v>
       </c>
       <c r="C25" s="4" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D25" s="14" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E25" s="14"/>
       <c r="F25" s="3"/>
@@ -1018,10 +1019,10 @@
         <v>10</v>
       </c>
       <c r="C26" s="4" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D26" s="14" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E26" s="14"/>
       <c r="F26" s="3"/>

--- a/d190104_sshCan/outRelease/config/sshFile.xlsx
+++ b/d190104_sshCan/outRelease/config/sshFile.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="21901"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="21425"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\QTobj\d190104_sshCan\outRelease\config\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\userSoft\QTcan3.3.0\config\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FE6734A3-4562-4FCA-8367-0BE3B7C576C1}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A423503F-F4F3-419E-B2F3-94CAAD28F5F0}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="384" yWindow="384" windowWidth="20316" windowHeight="10512" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="5364" yWindow="1032" windowWidth="17280" windowHeight="8964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="唯一有用的数据" sheetId="1" r:id="rId1"/>
@@ -75,6 +75,9 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>/dymind/app/DM_1114/config/motor.xml</t>
+  </si>
+  <si>
     <t>/dymind/app/DM_1114/config/</t>
   </si>
   <si>
@@ -143,10 +146,6 @@
   </si>
   <si>
     <t>./ssh_file/1114/hostapp.log</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>/dymind/app/DM_1114/config/motor.xml</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -633,7 +632,7 @@
   <dimension ref="A1:H38"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A11" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
+      <selection activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
@@ -693,13 +692,13 @@
         <v>6</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F3" s="1" t="s">
         <v>3</v>
@@ -797,7 +796,7 @@
       </c>
       <c r="B11" s="6"/>
       <c r="C11" s="12" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D11" s="9"/>
       <c r="E11" s="9"/>
@@ -813,10 +812,10 @@
         <v>9</v>
       </c>
       <c r="C12" s="4" t="s">
-        <v>29</v>
+        <v>11</v>
       </c>
       <c r="D12" s="11" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="E12" s="11"/>
       <c r="F12" s="3"/>
@@ -831,10 +830,10 @@
         <v>9</v>
       </c>
       <c r="C13" s="4" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D13" s="13" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="E13" s="11"/>
       <c r="F13" s="3"/>
@@ -921,10 +920,10 @@
         <v>10</v>
       </c>
       <c r="C20" s="4" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D20" s="7" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E20" s="11"/>
       <c r="F20" s="3"/>
@@ -937,7 +936,7 @@
       </c>
       <c r="B21" s="6"/>
       <c r="C21" s="12" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D21" s="9"/>
       <c r="E21" s="9"/>
@@ -953,10 +952,10 @@
         <v>9</v>
       </c>
       <c r="C22" s="4" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D22" s="14" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E22" s="11"/>
       <c r="F22" s="3"/>
@@ -971,10 +970,10 @@
         <v>9</v>
       </c>
       <c r="C23" s="4" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D23" s="14" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E23" s="11"/>
       <c r="F23" s="3"/>
@@ -1001,10 +1000,10 @@
         <v>10</v>
       </c>
       <c r="C25" s="4" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D25" s="14" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="E25" s="14"/>
       <c r="F25" s="3"/>
@@ -1019,10 +1018,10 @@
         <v>10</v>
       </c>
       <c r="C26" s="4" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D26" s="14" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E26" s="14"/>
       <c r="F26" s="3"/>
